--- a/1. Bộ quy trình/2. Quy trình Bảo hành/03.BaogiaBH/BGBH_yymmdd_KhachHang.xlsx
+++ b/1. Bộ quy trình/2. Quy trình Bảo hành/03.BaogiaBH/BGBH_yymmdd_KhachHang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET_PKT\PhongBaoHanh\PL02.MauGiayTo\MauBaoHanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\1. Bộ quy trình\2. Quy trình Bảo hành\03.BaogiaBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -35,9 +35,6 @@
     <t>Phòng Công nghệ và Sản xuất</t>
   </si>
   <si>
-    <t>ĐC: Lô 8, Dãy B, Số nhà 29, Khu ĐTM Định Công, Quận Hoàng Mai, HN</t>
-  </si>
-  <si>
     <t>ĐT :    +84 4 36400767       (Ext: 8   )  Fax:  +84 4 36400767</t>
   </si>
   <si>
@@ -95,7 +92,13 @@
     <t>Hà Nội, ngày    tháng    Năm 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Hà Văn Thể</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>ĐC: Số 02 Phố Thanh Lâm, Minh Khai, Bắc Từ Liêm, Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -684,63 +687,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -751,12 +697,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,31 +714,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -813,6 +732,90 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1170,7 +1173,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1196,88 +1199,88 @@
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="D1" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="A6" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="13"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -1285,10 +1288,10 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="36"/>
+      <c r="B8" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="79"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="14"/>
@@ -1302,27 +1305,27 @@
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="14"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="20"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="36"/>
+      <c r="B10" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="79"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="14"/>
@@ -1337,10 +1340,10 @@
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="37"/>
+      <c r="B11" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="80"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="15"/>
@@ -1364,22 +1367,22 @@
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -1440,11 +1443,11 @@
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58">
+      <c r="H16" s="39"/>
+      <c r="I16" s="39">
         <f t="shared" ref="I16" si="3">G16*H16</f>
         <v>0</v>
       </c>
@@ -1452,66 +1455,66 @@
       <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="59"/>
+      <c r="A17" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="62"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61">
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="40">
         <f>SUM(I13:I16)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="66"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
+      <c r="D19" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -1519,10 +1522,10 @@
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="73"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -1530,10 +1533,10 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="73"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -1541,10 +1544,10 @@
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
-      <c r="I23" s="73"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -1552,33 +1555,33 @@
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
-      <c r="I24" s="73"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E27" s="28"/>
@@ -1589,11 +1592,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D1:I1"/>
@@ -1607,6 +1605,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="mailto:contact@vn-et.com"/>
